--- a/docs/mcode-r4/obf-ActionStatement.xlsx
+++ b/docs/mcode-r4/obf-ActionStatement.xlsx
@@ -317,7 +317,7 @@
     <t>status</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/odh/StructureDefinition/obf-Status-extension}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/mcode/StructureDefinition/obf-Status-extension}
 </t>
   </si>
   <si>
@@ -327,7 +327,7 @@
     <t>identifier</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-Identifier-extension}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/mcode/StructureDefinition/shr-core-Identifier-extension}
 </t>
   </si>
   <si>
@@ -337,7 +337,7 @@
     <t>subjectofrecord</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/odh/StructureDefinition/obf-SubjectOfRecord-extension}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/mcode/StructureDefinition/obf-SubjectOfRecord-extension}
 </t>
   </si>
   <si>
@@ -348,7 +348,7 @@
     <t>carecontext</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/odh/StructureDefinition/obf-CareContext-extension}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/mcode/StructureDefinition/obf-CareContext-extension}
 </t>
   </si>
   <si>
@@ -358,7 +358,7 @@
     <t>statementdatetime</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/odh/StructureDefinition/obf-StatementDateTime-extension}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/mcode/StructureDefinition/obf-StatementDateTime-extension}
 </t>
   </si>
   <si>
@@ -368,7 +368,7 @@
     <t>reasoncode</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/odh/StructureDefinition/obf-ReasonCode-extension}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/mcode/StructureDefinition/obf-ReasonCode-extension}
 </t>
   </si>
   <si>
@@ -379,7 +379,7 @@
     <t>reasonreference</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/odh/StructureDefinition/obf-ReasonReference-extension}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/mcode/StructureDefinition/obf-ReasonReference-extension}
 </t>
   </si>
   <si>
@@ -389,7 +389,7 @@
     <t>basedon</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/odh/StructureDefinition/obf-BasedOn-extension}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/mcode/StructureDefinition/obf-BasedOn-extension}
 </t>
   </si>
   <si>
